--- a/biology/Zoologie/Chromodoris/Chromodoris.xlsx
+++ b/biology/Zoologie/Chromodoris/Chromodoris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chromodoris est un genre de nudibranches de la famille des Chromodorididae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chromodoris est un genre de nudibranches de la famille des Chromodorididae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les représentants de ce genre mesurent jusqu'à 15 cm de long et peuvent peser jusqu'à 400 g. De forme ronde ou ovale et très colorés, ils sont en général toxiques. Ils disposent de deux tentacules à l'avant leur permettant de se nourrir en broutant à la manière des escargots mais aussi de se repérer dans l'espace. Leurs branchies se trouvent à l'arrière de leur dos. Ils se nourrissent des éponges sur lesquelles ils vivent.
 Certains Chromodoris se retrouvent quelquefois dans les aquariums marins, que ce soit intentionnel ou en tant que « passager clandestin » par suite de la collecte de coraux ou de roches. Ils peuvent vivre plusieurs mois en captivité mais leur mort peut empoisonner les habitants de l'aquarium entier.
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (11 janvier 2016)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (11 janvier 2016) :
 Chromodoris africana Eliot, 1904
 Chromodoris aila Er. Marcus, 1961
 Chromodoris albolimbata Bergh, 1907
@@ -580,7 +596,7 @@
 Chromodoris lentiginosa Pease, 1871
 Chromodoris lineolata (van Hasselt, 1824)
 Chromodoris lochi Rudman, 1982
-Chromodoris magnifica (Quoy &amp; Gaimard,, 1832)
+Chromodoris magnifica (Quoy &amp; Gaimard 1832)
 Chromodoris mandapamensis Valdés, Mollo &amp; Ortea, 1999
 Chromodoris mariana Bergh, 1890
 Chromodoris marpessa Bergh, 1905
